--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C8F7B54D-A6DB-44CF-B26D-4A0B7188A3BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1186B543-C21E-46B5-B01D-4B7A8445AD49}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"user":"admin","pwd":"admin@yns.com"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/2.2.06/base_api/base/users/login/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +116,10 @@
   </si>
   <si>
     <t>{'Content-Type': 'application/x-www-form-urlencoded'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"user":"admin","pwd":"admin"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +482,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -520,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15">
@@ -531,10 +531,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>200</v>
@@ -546,33 +546,33 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="85.5">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
